--- a/OCTOBER/TOTAL OUTSTANDING SEPTEMBER 2025.xlsx
+++ b/OCTOBER/TOTAL OUTSTANDING SEPTEMBER 2025.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>RAFI SEAFOOD</t>
-  </si>
-  <si>
-    <t>SUBMITTED</t>
   </si>
   <si>
     <t>MAMA RADA PRODUCTION</t>
@@ -1441,7 +1438,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1506,7 +1503,7 @@
         <v>29900100</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:4">
@@ -1514,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <v>4400000</v>
@@ -1528,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
         <v>3663300</v>
@@ -1542,7 +1539,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1552,7 +1549,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>5610900</v>
@@ -1567,18 +1564,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>8775000</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -1592,7 +1589,7 @@
     </row>
     <row r="11" ht="16.5" hidden="1" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1602,10 +1599,10 @@
     </row>
     <row r="12" ht="16.5" spans="1:4">
       <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C12" s="4">
         <v>4760036</v>
@@ -1616,10 +1613,10 @@
     </row>
     <row r="13" ht="16.5" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4">
         <v>5600000</v>
@@ -1630,10 +1627,10 @@
     </row>
     <row r="14" ht="16.5" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4">
         <v>3948000</v>
@@ -1644,10 +1641,10 @@
     </row>
     <row r="15" ht="16.5" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
         <v>2447502</v>
@@ -1658,10 +1655,10 @@
     </row>
     <row r="16" ht="16.5" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4">
         <v>3230000</v>
@@ -1672,20 +1669,20 @@
     </row>
     <row r="17" ht="16.5" hidden="1" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" ht="16.5" spans="1:4">
       <c r="A18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4">
         <v>10023000</v>
@@ -1696,10 +1693,10 @@
     </row>
     <row r="19" ht="16.5" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4">
         <v>2410000</v>
@@ -1710,20 +1707,20 @@
     </row>
     <row r="20" ht="16.5" hidden="1" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" ht="16.5" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4">
         <v>250000</v>
@@ -1734,10 +1731,10 @@
     </row>
     <row r="22" ht="16.5" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4">
         <v>10775000</v>
@@ -1748,10 +1745,10 @@
     </row>
     <row r="23" ht="16.5" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4">
         <v>1225000</v>
@@ -1762,20 +1759,20 @@
     </row>
     <row r="24" ht="16.5" hidden="1" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" ht="16.5" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4">
         <v>3663000</v>
@@ -1786,10 +1783,10 @@
     </row>
     <row r="26" ht="16.5" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4">
         <v>20669000</v>
@@ -1800,24 +1797,24 @@
     </row>
     <row r="27" ht="16.5" spans="1:4">
       <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C27" s="4">
         <v>4375000</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4">
         <v>4897000</v>
@@ -1828,10 +1825,10 @@
     </row>
     <row r="29" ht="16.5" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4">
         <v>1168000</v>
@@ -1842,10 +1839,10 @@
     </row>
     <row r="30" ht="16.5" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4">
         <v>1007480.64</v>

--- a/OCTOBER/TOTAL OUTSTANDING SEPTEMBER 2025.xlsx
+++ b/OCTOBER/TOTAL OUTSTANDING SEPTEMBER 2025.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreal/Documents/GitHub/Purchasing-operations/OCTOBER/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F931BA-7C0D-C547-B9D6-7FB7CEA9CC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView xWindow="17100" yWindow="800" windowWidth="17120" windowHeight="21440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,15 +143,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ [$IDR]\ * #,##0_ ;_ [$IDR]\ * \-#,##0_ ;_ [$IDR]\ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="_ [$IDR]\ * #,##0_ ;_ [$IDR]\ * \-#,##0_ ;_ [$IDR]\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +159,13 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Garamond"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -175,160 +177,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Century"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,7 +195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,198 +225,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -581,251 +253,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -842,13 +272,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -861,89 +291,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -954,7 +453,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -982,196 +481,82 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D31" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D31" etc:filterBottomFollowUsedRange="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="2">
       <filters>
+        <filter val="IDR 1,007,481"/>
+        <filter val="IDR 1,168,000"/>
+        <filter val="IDR 1,225,000"/>
+        <filter val="IDR 10,023,000"/>
+        <filter val="IDR 10,775,000"/>
+        <filter val="IDR 2,410,000"/>
+        <filter val="IDR 2,447,502"/>
+        <filter val="IDR 20,669,000"/>
+        <filter val="IDR 25,661,000"/>
+        <filter val="IDR 250,000"/>
+        <filter val="IDR 29,900,100"/>
+        <filter val="IDR 3,230,000"/>
+        <filter val="IDR 3,663,000"/>
+        <filter val="IDR 3,663,300"/>
         <filter val="IDR 3,948,000"/>
-        <filter val="IDR 3,663,300"/>
-        <filter val="IDR 3,663,000"/>
+        <filter val="IDR 4,375,000"/>
+        <filter val="IDR 4,400,000"/>
+        <filter val="IDR 4,760,036"/>
+        <filter val="IDR 4,897,000"/>
+        <filter val="IDR 45,478,060"/>
         <filter val="IDR 5,600,000"/>
         <filter val="IDR 5,610,900"/>
-        <filter val="IDR 250,000"/>
-        <filter val="IDR 4,897,000"/>
+        <filter val="IDR 66,835,000"/>
         <filter val="IDR 8,775,000"/>
-        <filter val="IDR 1,225,000"/>
-        <filter val="IDR 3,230,000"/>
-        <filter val="IDR 1,168,000"/>
-        <filter val="IDR 4,400,000"/>
-        <filter val="IDR 2,410,000"/>
-        <filter val="IDR 4,375,000"/>
-        <filter val="IDR 1,007,481"/>
-        <filter val="IDR 2,447,502"/>
-        <filter val="IDR 25,661,000"/>
-        <filter val="IDR 20,669,000"/>
-        <filter val="IDR 66,835,000"/>
-        <filter val="IDR 10,775,000"/>
-        <filter val="IDR 29,900,100"/>
-        <filter val="IDR 10,023,000"/>
-        <filter val="IDR 4,760,036"/>
-        <filter val="IDR 45,478,060"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="DEPARTMENT"/>
-    <tableColumn id="2" name="SUPPLIER"/>
-    <tableColumn id="3" name="TOTAL AMOUNT"/>
-    <tableColumn id="4" name="STATUS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DEPARTMENT"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SUPPLIER"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TOTAL AMOUNT"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1429,28 +814,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="25.4285714285714" customWidth="1"/>
-    <col min="3" max="4" width="24.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="15.5714285714286"/>
-    <col min="8" max="8" width="11.7142857142857"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="4" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5"/>
+    <col min="8" max="8" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:4">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1478,7 +863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1520,7 +905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" ht="16.5" hidden="1" spans="1:4">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +929,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1559,7 +944,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" ht="16.5" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -1587,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="16.5" hidden="1" spans="1:4">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1597,7 +982,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" ht="16.5" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1611,7 +996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -1625,7 +1010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
@@ -1639,7 +1024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1653,7 +1038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="16.5" hidden="1" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
@@ -1677,7 +1062,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" ht="16.5" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
@@ -1691,7 +1076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:4">
+    <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
@@ -1705,7 +1090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="16.5" hidden="1" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1100,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" ht="16.5" spans="1:4">
+    <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
@@ -1729,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:4">
+    <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
         <v>14</v>
       </c>
@@ -1743,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:4">
+    <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
@@ -1757,7 +1142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" ht="16.5" hidden="1" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
@@ -1767,7 +1152,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" ht="16.5" spans="1:4">
+    <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
@@ -1781,7 +1166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
@@ -1795,7 +1180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:4">
+    <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
         <v>30</v>
       </c>
@@ -1809,7 +1194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:4">
+    <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
         <v>30</v>
       </c>
@@ -1823,7 +1208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
@@ -1837,7 +1222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
@@ -1851,10 +1236,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" hidden="1"/>
+    <row r="31" spans="1:4" hidden="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
